--- a/其他文档/test.xlsx
+++ b/其他文档/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="填写表" sheetId="1" r:id="rId1"/>
     <sheet name="输出表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>对话编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,10 @@
   </si>
   <si>
     <t>撒旦法8</t>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -305,7 +309,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -349,7 +353,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -391,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,7 +430,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,20 +645,20 @@
       <selection activeCell="D1" sqref="D1:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -683,7 +687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -712,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -733,7 +737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -757,7 +761,7 @@
         <v>130003</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -772,7 +776,7 @@
         <v>130003</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -793,7 +797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -808,7 +812,7 @@
         <v>110005</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -823,7 +827,7 @@
         <v>140006</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -838,7 +842,7 @@
         <v>110007</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2</v>
       </c>
@@ -853,7 +857,7 @@
         <v>210008</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
@@ -868,7 +872,7 @@
         <v>110009</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1</v>
       </c>
@@ -883,7 +887,7 @@
         <v>110010</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -898,7 +902,7 @@
         <v>220011</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1</v>
       </c>
@@ -913,1027 +917,1027 @@
         <v>110012</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D15" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D16" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D17" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D18" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D19" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D20" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D21" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D22" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D23" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D24" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D25" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D26" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D27" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D28" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D29" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D30" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D31" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D32" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D33" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D34" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D35" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D36" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D37" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D38" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D39" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D40" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D41" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D42" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D43" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D44" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D45" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D46" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D47" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D48" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D49" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D50" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D51" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D52" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D53" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D54" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D55" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D56" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D57" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D58" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D59" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D60" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D61" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D62" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D63" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D64" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D65" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D66" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D67" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D68" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D69" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D70" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D71" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D72" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D73" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D74" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D75" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D76" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D77" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D78" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D79" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D80" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D81" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D82" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D83" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D84" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D85" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D86" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D87" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D88" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D89" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D90" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D91" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D92" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D93" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D94" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D95" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D96" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D97" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D98" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D99" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D100" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D101" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D102" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D103" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D104" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D105" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D106" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D107" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D108" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D109" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D110" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D111" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D112" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D113" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D114" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D115" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D116" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D117" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D118" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D119" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D120" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D121" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D122" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D123" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D124" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D125" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D126" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D127" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D128" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D129" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D130" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D131" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D132" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D133" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D134" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D135" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D136" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D137" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D138" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D139" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D140" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D141" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D142" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D143" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D144" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D145" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D146" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D147" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D148" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D149" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D150" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D151" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D152" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D153" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D154" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D155" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D156" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D157" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D158" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D159" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D160" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D161" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D162" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D163" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D164" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D165" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D166" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D167" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D168" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D169" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D170" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D171" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D172" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D173" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D174" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D175" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D176" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D177" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D178" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D179" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D180" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D181" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D182" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D183" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D184" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D185" s="1">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>0</v>
@@ -1969,23 +1973,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="7"/>
-    <col min="3" max="3" width="21.5546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="7"/>
+    <col min="3" max="3" width="21.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -2005,7 +2009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -2025,7 +2029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>110001</v>
@@ -2040,7 +2044,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>250002</v>
@@ -2061,7 +2065,7 @@
         <v>130003</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>130003</v>
@@ -2076,7 +2080,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>220004</v>
@@ -2093,7 +2097,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>110005</v>
@@ -2108,7 +2112,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>140006</v>
@@ -2123,7 +2127,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>110007</v>
@@ -2138,7 +2142,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>210008</v>
@@ -2153,7 +2157,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>110009</v>
@@ -2168,7 +2172,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>110010</v>
@@ -2183,7 +2187,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>220011</v>
@@ -2198,7 +2202,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <f>IF(Table1[[#This Row],[时间段]]*Table1[[#This Row],[对话编号]],VALUE(Table1[[#This Row],[时间段]]*100000+VALUE(IF(Table1[[#This Row],[对话人物]]="张博士",1,IF(Table1[[#This Row],[对话人物]]="白梦薇",2,IF(Table1[[#This Row],[对话人物]]="焦困",3,IF(Table1[[#This Row],[对话人物]]="未来玩家",4,5)))))*10000+Table1[[#This Row],[对话编号]]),0)</f>
         <v>110012</v>
@@ -2212,6 +2216,14 @@
         <v>46</v>
       </c>
       <c r="F14" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>1111111</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/其他文档/test.xlsx
+++ b/其他文档/test.xlsx
@@ -2217,12 +2217,15 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>1111111</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>47</v>
+      </c>
+      <c r="E17" s="7">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
